--- a/外部設計/テーブル設計書（ER図）.xlsx
+++ b/外部設計/テーブル設計書（ER図）.xlsx
@@ -12,6 +12,7 @@
     <sheet name="USER_テーブル" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Itemテーブル" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="OWNERテーブル" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Historyテーブル" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -185,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY（履歴テーブル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> return_date</t>
   </si>
 </sst>
 </file>
@@ -480,9 +487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>799200</xdr:colOff>
+      <xdr:colOff>798480</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -492,7 +499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38160"/>
-          <a:ext cx="1616400" cy="2112480"/>
+          <a:ext cx="1618560" cy="2111760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -568,7 +575,7 @@
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (PK)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -682,16 +689,6 @@
             </a:rPr>
             <a:t>退会年月日</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
@@ -703,15 +700,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>716760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:colOff>815760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>726120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -720,8 +717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2351160" y="47520"/>
-          <a:ext cx="1643760" cy="3164400"/>
+          <a:off x="2456280" y="171720"/>
+          <a:ext cx="1649520" cy="3163680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,7 +794,7 @@
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (PK)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -969,7 +966,7 @@
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (FK)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -991,7 +988,7 @@
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (FK)</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1010,9 +1007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>813960</xdr:colOff>
+      <xdr:colOff>813240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1021,8 +1018,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4890600" y="38160"/>
-          <a:ext cx="1643760" cy="1338840"/>
+          <a:off x="4906440" y="38160"/>
+          <a:ext cx="1649520" cy="1338120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,16 +1075,6 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -1143,15 +1130,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:colOff>297000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1160,8 +1147,236 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="954360" y="583200"/>
-          <a:ext cx="1723320" cy="2017800"/>
+          <a:off x="1117080" y="2170800"/>
+          <a:ext cx="434880" cy="1300680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>740880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="シェイプ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="740880" y="3471120"/>
+          <a:ext cx="1649160" cy="1338120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="dee6ef"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>貸出履歴テーブル</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>会員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>PK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>資料</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>FK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>貸出日</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>返却日</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="線 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1641240" y="697680"/>
+          <a:ext cx="829800" cy="19440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1184,25 +1399,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:colOff>781200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="線 4"/>
+        <xdr:cNvPr id="6" name="線 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1062360" y="736200"/>
-          <a:ext cx="1654200" cy="2055960"/>
+        <a:xfrm flipV="1">
+          <a:off x="1601280" y="3136680"/>
+          <a:ext cx="889560" cy="372960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1233,10 +1448,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1260,7 +1475,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1397,11 +1612,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
@@ -1679,10 +1894,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
   </cols>
@@ -1781,6 +1996,137 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/外部設計/テーブル設計書（ER図）.xlsx
+++ b/外部設計/テーブル設計書（ER図）.xlsx
@@ -487,9 +487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>798480</xdr:colOff>
+      <xdr:colOff>798120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -499,7 +499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38160"/>
-          <a:ext cx="1618560" cy="2111760"/>
+          <a:ext cx="1619640" cy="2111400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -706,9 +706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -717,8 +717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2456280" y="171720"/>
-          <a:ext cx="1649520" cy="3163680"/>
+          <a:off x="2458800" y="171720"/>
+          <a:ext cx="1653120" cy="3163320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1007,9 +1007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>813240</xdr:colOff>
+      <xdr:colOff>812880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1018,8 +1018,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4906440" y="38160"/>
-          <a:ext cx="1649520" cy="1338120"/>
+          <a:off x="4912920" y="38160"/>
+          <a:ext cx="1651680" cy="1337760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,67 +1129,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>731880</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>808560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="線 3"/>
+        <xdr:cNvPr id="3" name="シェイプ 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117080" y="2170800"/>
-          <a:ext cx="434880" cy="1300680"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>740880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>749520</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="シェイプ 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="740880" y="3471120"/>
-          <a:ext cx="1649160" cy="1338120"/>
+          <a:off x="4908960" y="2122560"/>
+          <a:ext cx="1651320" cy="1337760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,13 +1329,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="線 1"/>
+        <xdr:cNvPr id="4" name="線 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1641240" y="697680"/>
-          <a:ext cx="829800" cy="19440"/>
+          <a:off x="1643760" y="697680"/>
+          <a:ext cx="831240" cy="19440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1398,26 +1357,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>792360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="線 2"/>
+        <xdr:cNvPr id="5" name="線 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1601280" y="3136680"/>
-          <a:ext cx="889560" cy="372960"/>
+        <a:xfrm>
+          <a:off x="4087800" y="2619720"/>
+          <a:ext cx="812880" cy="9720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1448,10 +1407,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1475,7 +1434,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1616,7 +1575,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
@@ -1897,7 +1856,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
   </cols>
@@ -2022,7 +1981,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>

--- a/外部設計/テーブル設計書（ER図）.xlsx
+++ b/外部設計/テーブル設計書（ER図）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
   <si>
-    <t xml:space="preserve">USER（会員テーブル）</t>
+    <t xml:space="preserve">customer（会員テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">項目</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">会員ID</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">customer_id</t>
   </si>
   <si>
     <t xml:space="preserve">SERIAL</t>
@@ -74,22 +74,55 @@
     <t xml:space="preserve">氏名</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
+    <t xml:space="preserve">customer_name</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
+    <t xml:space="preserve">住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer_tell</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">mail</t>
+    <t xml:space="preserve">customer_mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer_birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">pass</t>
+    <t xml:space="preserve">customer_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave_date</t>
   </si>
   <si>
     <t xml:space="preserve">Items（資料テーブル）</t>
@@ -149,9 +182,6 @@
     <t xml:space="preserve">arrival_date</t>
   </si>
   <si>
-    <t xml:space="preserve">DATETIME</t>
-  </si>
-  <si>
     <t xml:space="preserve">貸出日</t>
   </si>
   <si>
@@ -185,10 +215,19 @@
     <t xml:space="preserve">管理者ID</t>
   </si>
   <si>
+    <t xml:space="preserve">owner_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">password </t>
   </si>
   <si>
     <t xml:space="preserve">HISTORY（履歴テーブル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_id</t>
   </si>
   <si>
     <t xml:space="preserve"> return_date</t>
@@ -487,9 +526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>798120</xdr:colOff>
+      <xdr:colOff>797400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -499,7 +538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38160"/>
-          <a:ext cx="1619640" cy="2111400"/>
+          <a:ext cx="1622160" cy="2110680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -706,9 +745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -717,8 +756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2458800" y="171720"/>
-          <a:ext cx="1653120" cy="3163320"/>
+          <a:off x="2465280" y="171720"/>
+          <a:ext cx="1661760" cy="3162600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1007,9 +1046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>812880</xdr:colOff>
+      <xdr:colOff>812160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1018,8 +1057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4912920" y="38160"/>
-          <a:ext cx="1651680" cy="1337760"/>
+          <a:off x="4928760" y="38160"/>
+          <a:ext cx="1657440" cy="1337040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,9 +1175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>808560</xdr:colOff>
+      <xdr:colOff>807840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1147,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4908960" y="2122560"/>
-          <a:ext cx="1651320" cy="1337760"/>
+          <a:off x="4924800" y="2122560"/>
+          <a:ext cx="1657080" cy="1337040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,8 +1373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1643760" y="697680"/>
-          <a:ext cx="831240" cy="19440"/>
+          <a:off x="1650240" y="697680"/>
+          <a:ext cx="834120" cy="19440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1375,8 +1414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4087800" y="2619720"/>
-          <a:ext cx="812880" cy="9720"/>
+          <a:off x="4100760" y="2619720"/>
+          <a:ext cx="815760" cy="9720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1406,11 +1445,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1428,13 +1467,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.79296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1504,7 +1547,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -1522,14 +1565,14 @@
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>255</v>
+      <c r="D5" s="6" t="n">
+        <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1542,14 +1585,100 @@
         <v>17</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-    </row>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>255</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -1571,11 +1700,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
@@ -1588,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1621,10 +1750,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -1642,13 +1771,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="6" t="s">
@@ -1659,13 +1788,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
@@ -1676,13 +1805,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -1693,13 +1822,13 @@
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
@@ -1710,13 +1839,13 @@
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
@@ -1727,13 +1856,13 @@
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
@@ -1744,13 +1873,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="6" t="s">
@@ -1761,13 +1890,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
@@ -1776,13 +1905,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="6"/>
@@ -1791,35 +1920,35 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -1853,10 +1982,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
   </cols>
@@ -1866,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1899,10 +2028,10 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -1918,12 +2047,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
@@ -1939,10 +2068,10 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -1977,13 +2106,13 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>
   </cols>
   <sheetData>
@@ -1992,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2031,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
@@ -2040,32 +2169,32 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2074,13 +2203,13 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>

--- a/外部設計/テーブル設計書（ER図）.xlsx
+++ b/外部設計/テーブル設計書（ER図）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId2"/>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">出版日</t>
   </si>
   <si>
-    <t xml:space="preserve">pdate</t>
+    <t xml:space="preserve">pDate</t>
   </si>
   <si>
     <t xml:space="preserve">入荷日</t>
@@ -591,9 +591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>796320</xdr:colOff>
+      <xdr:colOff>795960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -603,7 +603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38160"/>
-          <a:ext cx="1626120" cy="2109600"/>
+          <a:ext cx="1627560" cy="2109240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -810,9 +810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -821,8 +821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2475360" y="171720"/>
-          <a:ext cx="1676160" cy="3161520"/>
+          <a:off x="2479320" y="171720"/>
+          <a:ext cx="1681200" cy="3161160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1111,9 +1111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>811080</xdr:colOff>
+      <xdr:colOff>810720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1122,8 +1122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4954320" y="38160"/>
-          <a:ext cx="1666080" cy="1335960"/>
+          <a:off x="4963680" y="38160"/>
+          <a:ext cx="1669680" cy="1335600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1240,9 +1240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:colOff>806400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1251,8 +1251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4950360" y="2122560"/>
-          <a:ext cx="1665720" cy="1335960"/>
+          <a:off x="4959720" y="2122560"/>
+          <a:ext cx="1669320" cy="1335600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,8 +1438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1660320" y="697680"/>
-          <a:ext cx="839520" cy="19440"/>
+          <a:off x="1664280" y="697680"/>
+          <a:ext cx="841320" cy="19440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1479,8 +1479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4120920" y="2619720"/>
-          <a:ext cx="821160" cy="9720"/>
+          <a:off x="4128480" y="2619720"/>
+          <a:ext cx="822960" cy="9720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1514,7 +1514,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1534,11 +1534,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.69"/>
@@ -1774,11 +1774,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8359375" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
@@ -2059,7 +2059,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
   </cols>
@@ -2184,7 +2184,7 @@
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>

--- a/外部設計/テーブル設計書（ER図）.xlsx
+++ b/外部設計/テーブル設計書（ER図）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -230,13 +230,16 @@
     <t xml:space="preserve">管理者ID</t>
   </si>
   <si>
-    <t xml:space="preserve">aID</t>
+    <t xml:space="preserve">oID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oName</t>
   </si>
   <si>
     <t xml:space="preserve">管理者メアド </t>
   </si>
   <si>
-    <t xml:space="preserve">aMail</t>
+    <t xml:space="preserve">oMail</t>
   </si>
   <si>
     <t xml:space="preserve">HISTORY（履歴テーブル)</t>
@@ -591,9 +594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>795600</xdr:colOff>
+      <xdr:colOff>795240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -603,7 +606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38160"/>
-          <a:ext cx="1628640" cy="2108880"/>
+          <a:ext cx="1630080" cy="2108520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,10 +812,10 @@
       <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>835560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -821,8 +824,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2481840" y="171720"/>
-          <a:ext cx="1684800" cy="3160800"/>
+          <a:off x="2485800" y="171720"/>
+          <a:ext cx="1689840" cy="3160440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1111,9 +1114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>810360</xdr:colOff>
+      <xdr:colOff>810000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1122,8 +1125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4970160" y="38160"/>
-          <a:ext cx="1671840" cy="1335240"/>
+          <a:off x="4979520" y="38160"/>
+          <a:ext cx="1675440" cy="1334880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1240,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>806040</xdr:colOff>
+      <xdr:colOff>805680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1251,8 +1254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4966200" y="2122560"/>
-          <a:ext cx="1671480" cy="1335240"/>
+          <a:off x="4975560" y="2122560"/>
+          <a:ext cx="1675080" cy="1334880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,8 +1441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666800" y="697680"/>
-          <a:ext cx="842400" cy="19440"/>
+          <a:off x="1670760" y="697680"/>
+          <a:ext cx="844200" cy="19440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1479,8 +1482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4133520" y="2619720"/>
-          <a:ext cx="824400" cy="9720"/>
+          <a:off x="4141440" y="2619720"/>
+          <a:ext cx="825840" cy="9720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1514,7 +1517,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1538,7 +1541,7 @@
       <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.91015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.69"/>
@@ -1778,7 +1781,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
@@ -2119,11 +2122,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
   </cols>
@@ -2190,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -2206,10 +2209,10 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -2244,11 +2247,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.79296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.89"/>
@@ -2259,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
